--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.6705245013143</v>
+        <v>44.55966900000001</v>
       </c>
       <c r="H2">
-        <v>38.6705245013143</v>
+        <v>133.679007</v>
       </c>
       <c r="I2">
-        <v>0.0633236187531184</v>
+        <v>0.06090068036918207</v>
       </c>
       <c r="J2">
-        <v>0.0633236187531184</v>
+        <v>0.06124213504648319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>4785.211660861477</v>
+        <v>6158.99669193609</v>
       </c>
       <c r="R2">
-        <v>4785.211660861477</v>
+        <v>55430.9702274248</v>
       </c>
       <c r="S2">
-        <v>0.01337538345974008</v>
+        <v>0.01369792506962221</v>
       </c>
       <c r="T2">
-        <v>0.01337538345974008</v>
+        <v>0.0151672210641175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.6705245013143</v>
+        <v>44.55966900000001</v>
       </c>
       <c r="H3">
-        <v>38.6705245013143</v>
+        <v>133.679007</v>
       </c>
       <c r="I3">
-        <v>0.0633236187531184</v>
+        <v>0.06090068036918207</v>
       </c>
       <c r="J3">
-        <v>0.0633236187531184</v>
+        <v>0.06124213504648319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>5359.279158584308</v>
+        <v>6591.01358515677</v>
       </c>
       <c r="R3">
-        <v>5359.279158584308</v>
+        <v>59319.12226641093</v>
       </c>
       <c r="S3">
-        <v>0.01497998811633619</v>
+        <v>0.01465875283559518</v>
       </c>
       <c r="T3">
-        <v>0.01497998811633619</v>
+        <v>0.01623111118302119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.6705245013143</v>
+        <v>44.55966900000001</v>
       </c>
       <c r="H4">
-        <v>38.6705245013143</v>
+        <v>133.679007</v>
       </c>
       <c r="I4">
-        <v>0.0633236187531184</v>
+        <v>0.06090068036918207</v>
       </c>
       <c r="J4">
-        <v>0.0633236187531184</v>
+        <v>0.06124213504648319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>2757.20421210482</v>
+        <v>3309.563244136996</v>
       </c>
       <c r="R4">
-        <v>2757.20421210482</v>
+        <v>29786.06919723297</v>
       </c>
       <c r="S4">
-        <v>0.007706798826757282</v>
+        <v>0.007360638688233083</v>
       </c>
       <c r="T4">
-        <v>0.007706798826757282</v>
+        <v>0.008150171182138472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.6705245013143</v>
+        <v>44.55966900000001</v>
       </c>
       <c r="H5">
-        <v>38.6705245013143</v>
+        <v>133.679007</v>
       </c>
       <c r="I5">
-        <v>0.0633236187531184</v>
+        <v>0.06090068036918207</v>
       </c>
       <c r="J5">
-        <v>0.0633236187531184</v>
+        <v>0.06124213504648319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>3280.297681197815</v>
+        <v>3781.197767735004</v>
       </c>
       <c r="R5">
-        <v>3280.297681197815</v>
+        <v>34030.77990961503</v>
       </c>
       <c r="S5">
-        <v>0.009168923436966252</v>
+        <v>0.008409578099574388</v>
       </c>
       <c r="T5">
-        <v>0.009168923436966252</v>
+        <v>0.00931162416525934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.6705245013143</v>
+        <v>44.55966900000001</v>
       </c>
       <c r="H6">
-        <v>38.6705245013143</v>
+        <v>133.679007</v>
       </c>
       <c r="I6">
-        <v>0.0633236187531184</v>
+        <v>0.06090068036918207</v>
       </c>
       <c r="J6">
-        <v>0.0633236187531184</v>
+        <v>0.06124213504648319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>6472.828345462727</v>
+        <v>7541.995591712392</v>
       </c>
       <c r="R6">
-        <v>6472.828345462727</v>
+        <v>45251.97355027434</v>
       </c>
       <c r="S6">
-        <v>0.0180925249133186</v>
+        <v>0.01677378567615723</v>
       </c>
       <c r="T6">
-        <v>0.0180925249133186</v>
+        <v>0.01238200745194669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>277.834052348731</v>
+        <v>313.604309</v>
       </c>
       <c r="H7">
-        <v>277.834052348731</v>
+        <v>940.8129269999999</v>
       </c>
       <c r="I7">
-        <v>0.4549578221254028</v>
+        <v>0.4286099114606799</v>
       </c>
       <c r="J7">
-        <v>0.4549578221254028</v>
+        <v>0.4310130185872126</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>34380.0546857946</v>
+        <v>43346.10074657204</v>
       </c>
       <c r="R7">
-        <v>34380.0546857946</v>
+        <v>390114.9067191483</v>
       </c>
       <c r="S7">
-        <v>0.09609740328739208</v>
+        <v>0.09640395502472533</v>
       </c>
       <c r="T7">
-        <v>0.09609740328739208</v>
+        <v>0.1067446412419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>277.834052348731</v>
+        <v>313.604309</v>
       </c>
       <c r="H8">
-        <v>277.834052348731</v>
+        <v>940.8129269999999</v>
       </c>
       <c r="I8">
-        <v>0.4549578221254028</v>
+        <v>0.4286099114606799</v>
       </c>
       <c r="J8">
-        <v>0.4549578221254028</v>
+        <v>0.4310130185872126</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>38504.52678103627</v>
+        <v>46386.57125084796</v>
       </c>
       <c r="R8">
-        <v>38504.52678103627</v>
+        <v>417479.1412576317</v>
       </c>
       <c r="S8">
-        <v>0.1076259206765108</v>
+        <v>0.1031661176345052</v>
       </c>
       <c r="T8">
-        <v>0.1076259206765108</v>
+        <v>0.1142321413306174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>277.834052348731</v>
+        <v>313.604309</v>
       </c>
       <c r="H9">
-        <v>277.834052348731</v>
+        <v>940.8129269999999</v>
       </c>
       <c r="I9">
-        <v>0.4549578221254028</v>
+        <v>0.4286099114606799</v>
       </c>
       <c r="J9">
-        <v>0.4549578221254028</v>
+        <v>0.4310130185872126</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>19809.53786587603</v>
+        <v>23292.21283644142</v>
       </c>
       <c r="R9">
-        <v>19809.53786587603</v>
+        <v>209629.9155279728</v>
       </c>
       <c r="S9">
-        <v>0.05537062598159608</v>
+        <v>0.05180307801707418</v>
       </c>
       <c r="T9">
-        <v>0.05537062598159608</v>
+        <v>0.0573596900328467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>277.834052348731</v>
+        <v>313.604309</v>
       </c>
       <c r="H10">
-        <v>277.834052348731</v>
+        <v>940.8129269999999</v>
       </c>
       <c r="I10">
-        <v>0.4549578221254028</v>
+        <v>0.4286099114606799</v>
       </c>
       <c r="J10">
-        <v>0.4549578221254028</v>
+        <v>0.4310130185872126</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>23567.77957967339</v>
+        <v>26611.50631848002</v>
       </c>
       <c r="R10">
-        <v>23567.77957967339</v>
+        <v>239503.5568663202</v>
       </c>
       <c r="S10">
-        <v>0.06587547458998153</v>
+        <v>0.05918535725430452</v>
       </c>
       <c r="T10">
-        <v>0.06587547458998153</v>
+        <v>0.06553382301861031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>277.834052348731</v>
+        <v>313.604309</v>
       </c>
       <c r="H11">
-        <v>277.834052348731</v>
+        <v>940.8129269999999</v>
       </c>
       <c r="I11">
-        <v>0.4549578221254028</v>
+        <v>0.4286099114606799</v>
       </c>
       <c r="J11">
-        <v>0.4549578221254028</v>
+        <v>0.4310130185872126</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>46504.98415961542</v>
+        <v>53079.44087331551</v>
       </c>
       <c r="R11">
-        <v>46504.98415961542</v>
+        <v>318476.6452398931</v>
       </c>
       <c r="S11">
-        <v>0.1299883975899224</v>
+        <v>0.1180514035300707</v>
       </c>
       <c r="T11">
-        <v>0.1299883975899224</v>
+        <v>0.08714272296323816</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>166.7524531145</v>
+        <v>237.2525086666667</v>
       </c>
       <c r="H12">
-        <v>166.7524531145</v>
+        <v>711.757526</v>
       </c>
       <c r="I12">
-        <v>0.2730598796716855</v>
+        <v>0.3242582254615775</v>
       </c>
       <c r="J12">
-        <v>0.2730598796716855</v>
+        <v>0.3260762591365057</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>20634.47014000657</v>
+        <v>32792.82474094541</v>
       </c>
       <c r="R12">
-        <v>20634.47014000657</v>
+        <v>295135.4226685087</v>
       </c>
       <c r="S12">
-        <v>0.05767643527004562</v>
+        <v>0.07293292699943288</v>
       </c>
       <c r="T12">
-        <v>0.05767643527004562</v>
+        <v>0.08075601385108551</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>166.7524531145</v>
+        <v>237.2525086666667</v>
       </c>
       <c r="H13">
-        <v>166.7524531145</v>
+        <v>711.757526</v>
       </c>
       <c r="I13">
-        <v>0.2730598796716855</v>
+        <v>0.3242582254615775</v>
       </c>
       <c r="J13">
-        <v>0.2730598796716855</v>
+        <v>0.3260762591365057</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>23109.9256641573</v>
+        <v>35093.04586024919</v>
       </c>
       <c r="R13">
-        <v>23109.9256641573</v>
+        <v>315837.4127422427</v>
       </c>
       <c r="S13">
-        <v>0.06459570430549036</v>
+        <v>0.0780487369457248</v>
       </c>
       <c r="T13">
-        <v>0.06459570430549036</v>
+        <v>0.08642056669270511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>166.7524531145</v>
+        <v>237.2525086666667</v>
       </c>
       <c r="H14">
-        <v>166.7524531145</v>
+        <v>711.757526</v>
       </c>
       <c r="I14">
-        <v>0.2730598796716855</v>
+        <v>0.3242582254615775</v>
       </c>
       <c r="J14">
-        <v>0.2730598796716855</v>
+        <v>0.3260762591365057</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>11889.43186148108</v>
+        <v>17621.36478757268</v>
       </c>
       <c r="R14">
-        <v>11889.43186148108</v>
+        <v>158592.2830881541</v>
       </c>
       <c r="S14">
-        <v>0.03323274319638591</v>
+        <v>0.03919082060892825</v>
       </c>
       <c r="T14">
-        <v>0.03323274319638591</v>
+        <v>0.04339458982572614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>166.7524531145</v>
+        <v>237.2525086666667</v>
       </c>
       <c r="H15">
-        <v>166.7524531145</v>
+        <v>711.757526</v>
       </c>
       <c r="I15">
-        <v>0.2730598796716855</v>
+        <v>0.3242582254615775</v>
       </c>
       <c r="J15">
-        <v>0.2730598796716855</v>
+        <v>0.3260762591365057</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>14145.08058371308</v>
+        <v>20132.52513522777</v>
       </c>
       <c r="R15">
-        <v>14145.08058371308</v>
+        <v>181192.7262170499</v>
       </c>
       <c r="S15">
-        <v>0.0395376192914371</v>
+        <v>0.04477577023636065</v>
       </c>
       <c r="T15">
-        <v>0.0395376192914371</v>
+        <v>0.04957860420751631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>166.7524531145</v>
+        <v>237.2525086666667</v>
       </c>
       <c r="H16">
-        <v>166.7524531145</v>
+        <v>711.757526</v>
       </c>
       <c r="I16">
-        <v>0.2730598796716855</v>
+        <v>0.3242582254615775</v>
       </c>
       <c r="J16">
-        <v>0.2730598796716855</v>
+        <v>0.3260762591365057</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>27911.69809859434</v>
+        <v>40156.43326449992</v>
       </c>
       <c r="R16">
-        <v>27911.69809859434</v>
+        <v>240938.5995869995</v>
       </c>
       <c r="S16">
-        <v>0.07801737760832658</v>
+        <v>0.0893099706711309</v>
       </c>
       <c r="T16">
-        <v>0.07801737760832658</v>
+        <v>0.06592648455947267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.1303328623</v>
+        <v>124.0228246666667</v>
       </c>
       <c r="H17">
-        <v>118.1303328623</v>
+        <v>372.068474</v>
       </c>
       <c r="I17">
-        <v>0.1934403594938832</v>
+        <v>0.1695047241824838</v>
       </c>
       <c r="J17">
-        <v>0.1934403594938832</v>
+        <v>0.1704550942037363</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>14617.81689293905</v>
+        <v>17142.32138588304</v>
       </c>
       <c r="R17">
-        <v>14617.81689293905</v>
+        <v>154280.8924729473</v>
       </c>
       <c r="S17">
-        <v>0.04085898809586347</v>
+        <v>0.03812540347207004</v>
       </c>
       <c r="T17">
-        <v>0.04085898809586347</v>
+        <v>0.04221489164822158</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.1303328623</v>
+        <v>124.0228246666667</v>
       </c>
       <c r="H18">
-        <v>118.1303328623</v>
+        <v>372.068474</v>
       </c>
       <c r="I18">
-        <v>0.1934403594938832</v>
+        <v>0.1695047241824838</v>
       </c>
       <c r="J18">
-        <v>0.1934403594938832</v>
+        <v>0.1704550942037363</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>16371.47256391711</v>
+        <v>18344.75301527747</v>
       </c>
       <c r="R18">
-        <v>16371.47256391711</v>
+        <v>165102.7771374972</v>
       </c>
       <c r="S18">
-        <v>0.04576071840959771</v>
+        <v>0.0407996731923889</v>
       </c>
       <c r="T18">
-        <v>0.04576071840959771</v>
+        <v>0.04517601457939487</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.1303328623</v>
+        <v>124.0228246666667</v>
       </c>
       <c r="H19">
-        <v>118.1303328623</v>
+        <v>372.068474</v>
       </c>
       <c r="I19">
-        <v>0.1934403594938832</v>
+        <v>0.1695047241824838</v>
       </c>
       <c r="J19">
-        <v>0.1934403594938832</v>
+        <v>0.1704550942037363</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>8422.679949277855</v>
+        <v>9211.499797066426</v>
       </c>
       <c r="R19">
-        <v>8422.679949277855</v>
+        <v>82903.49817359784</v>
       </c>
       <c r="S19">
-        <v>0.02354265225124316</v>
+        <v>0.02048684880189336</v>
       </c>
       <c r="T19">
-        <v>0.02354265225124316</v>
+        <v>0.02268435278380724</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.1303328623</v>
+        <v>124.0228246666667</v>
       </c>
       <c r="H20">
-        <v>118.1303328623</v>
+        <v>372.068474</v>
       </c>
       <c r="I20">
-        <v>0.1934403594938832</v>
+        <v>0.1695047241824838</v>
       </c>
       <c r="J20">
-        <v>0.1934403594938832</v>
+        <v>0.1704550942037363</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>10020.62066559657</v>
+        <v>10524.19908634846</v>
       </c>
       <c r="R20">
-        <v>10020.62066559657</v>
+        <v>94717.79177713612</v>
       </c>
       <c r="S20">
-        <v>0.02800913593920751</v>
+        <v>0.02340635946295189</v>
       </c>
       <c r="T20">
-        <v>0.02800913593920751</v>
+        <v>0.02591702221149478</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.1303328623</v>
+        <v>124.0228246666667</v>
       </c>
       <c r="H21">
-        <v>118.1303328623</v>
+        <v>372.068474</v>
       </c>
       <c r="I21">
-        <v>0.1934403594938832</v>
+        <v>0.1695047241824838</v>
       </c>
       <c r="J21">
-        <v>0.1934403594938832</v>
+        <v>0.1704550942037363</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>19773.13152253869</v>
+        <v>20991.61905596109</v>
       </c>
       <c r="R21">
-        <v>19773.13152253869</v>
+        <v>125949.7143357665</v>
       </c>
       <c r="S21">
-        <v>0.05526886479797141</v>
+        <v>0.04668643925317964</v>
       </c>
       <c r="T21">
-        <v>0.05526886479797141</v>
+        <v>0.0344628129808178</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.293537329543151</v>
+        <v>12.2383765</v>
       </c>
       <c r="H22">
-        <v>9.293537329543151</v>
+        <v>24.476753</v>
       </c>
       <c r="I22">
-        <v>0.01521831995591017</v>
+        <v>0.01672645852607678</v>
       </c>
       <c r="J22">
-        <v>0.01521831995591017</v>
+        <v>0.01121349302606214</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>1150.011378782045</v>
+        <v>1691.577205794961</v>
       </c>
       <c r="R22">
-        <v>1150.011378782045</v>
+        <v>10149.46323476977</v>
       </c>
       <c r="S22">
-        <v>0.003214454085716467</v>
+        <v>0.003762154612746904</v>
       </c>
       <c r="T22">
-        <v>0.003214454085716467</v>
+        <v>0.002777132565645114</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.293537329543151</v>
+        <v>12.2383765</v>
       </c>
       <c r="H23">
-        <v>9.293537329543151</v>
+        <v>24.476753</v>
       </c>
       <c r="I23">
-        <v>0.01521831995591017</v>
+        <v>0.01672645852607678</v>
       </c>
       <c r="J23">
-        <v>0.01521831995591017</v>
+        <v>0.01121349302606214</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>1287.974796360807</v>
+        <v>1810.231260285245</v>
       </c>
       <c r="R23">
-        <v>1287.974796360807</v>
+        <v>10861.38756171147</v>
       </c>
       <c r="S23">
-        <v>0.003600082506006652</v>
+        <v>0.004026047325945269</v>
       </c>
       <c r="T23">
-        <v>0.003600082506006652</v>
+        <v>0.002971931855705267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.293537329543151</v>
+        <v>12.2383765</v>
       </c>
       <c r="H24">
-        <v>9.293537329543151</v>
+        <v>24.476753</v>
       </c>
       <c r="I24">
-        <v>0.01521831995591017</v>
+        <v>0.01672645852607678</v>
       </c>
       <c r="J24">
-        <v>0.01521831995591017</v>
+        <v>0.01121349302606214</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>662.62820587031</v>
+        <v>908.9762545657592</v>
       </c>
       <c r="R24">
-        <v>662.62820587031</v>
+        <v>5453.857527394555</v>
       </c>
       <c r="S24">
-        <v>0.001852145103056823</v>
+        <v>0.002021609890034474</v>
       </c>
       <c r="T24">
-        <v>0.001852145103056823</v>
+        <v>0.001492304075335639</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.293537329543151</v>
+        <v>12.2383765</v>
       </c>
       <c r="H25">
-        <v>9.293537329543151</v>
+        <v>24.476753</v>
       </c>
       <c r="I25">
-        <v>0.01521831995591017</v>
+        <v>0.01672645852607678</v>
       </c>
       <c r="J25">
-        <v>0.01521831995591017</v>
+        <v>0.01121349302606214</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>788.3412326406283</v>
+        <v>1038.511347615722</v>
       </c>
       <c r="R25">
-        <v>788.3412326406283</v>
+        <v>6231.068085694334</v>
       </c>
       <c r="S25">
-        <v>0.002203531845818974</v>
+        <v>0.002309702592017589</v>
       </c>
       <c r="T25">
-        <v>0.002203531845818974</v>
+        <v>0.001704967218389676</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.293537329543151</v>
+        <v>12.2383765</v>
       </c>
       <c r="H26">
-        <v>9.293537329543151</v>
+        <v>24.476753</v>
       </c>
       <c r="I26">
-        <v>0.01521831995591017</v>
+        <v>0.01672645852607678</v>
       </c>
       <c r="J26">
-        <v>0.01521831995591017</v>
+        <v>0.01121349302606214</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>1555.589758143528</v>
+        <v>2071.419821648956</v>
       </c>
       <c r="R26">
-        <v>1555.589758143528</v>
+        <v>8285.679286595823</v>
       </c>
       <c r="S26">
-        <v>0.004348106415311257</v>
+        <v>0.00460694410533254</v>
       </c>
       <c r="T26">
-        <v>0.004348106415311257</v>
+        <v>0.002267157310986447</v>
       </c>
     </row>
   </sheetData>
